--- a/artfynd/A 11648-2024 artfynd.xlsx
+++ b/artfynd/A 11648-2024 artfynd.xlsx
@@ -931,7 +931,7 @@
         <v>129302342</v>
       </c>
       <c r="B4" t="n">
-        <v>98987</v>
+        <v>98991</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>

--- a/artfynd/A 11648-2024 artfynd.xlsx
+++ b/artfynd/A 11648-2024 artfynd.xlsx
@@ -931,7 +931,7 @@
         <v>129302342</v>
       </c>
       <c r="B4" t="n">
-        <v>98991</v>
+        <v>98992</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
